--- a/output/kossutha/2022/sheets/year_2022.xlsx
+++ b/output/kossutha/2022/sheets/year_2022.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>30.36129032258064</v>
+        <v>39.15107040293646</v>
       </c>
       <c r="C2" t="n">
-        <v>16.47096774193548</v>
+        <v>34.69853618450435</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>35.14285714285715</v>
+        <v>40.50149630778129</v>
       </c>
       <c r="C3" t="n">
-        <v>15.98571428571428</v>
+        <v>39.18697315689138</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.54193548387097</v>
+        <v>38.89135407103954</v>
       </c>
       <c r="C4" t="n">
-        <v>9.380645161290323</v>
+        <v>39.06783536472109</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.35333333333334</v>
+        <v>39.67426060183003</v>
       </c>
       <c r="C5" t="n">
-        <v>11.86</v>
+        <v>36.721475934106</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37.32903225806452</v>
+        <v>49.48284692194754</v>
       </c>
       <c r="C6" t="n">
-        <v>18.79032258064516</v>
+        <v>47.03624324383482</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40.89</v>
+        <v>51.72105071131209</v>
       </c>
       <c r="C7" t="n">
-        <v>29.25666666666667</v>
+        <v>47.7919401090216</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.49354838709677</v>
+        <v>45.77598316952519</v>
       </c>
       <c r="C8" t="n">
-        <v>31.97741935483871</v>
+        <v>40.41979852274324</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.48709677419355</v>
+        <v>41.02794306929318</v>
       </c>
       <c r="C9" t="n">
-        <v>11.6</v>
+        <v>38.03207160495356</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.02666666666667</v>
+        <v>41.6129652552204</v>
       </c>
       <c r="C10" t="n">
-        <v>17.37</v>
+        <v>38.18972740356043</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>38.75483870967741</v>
+        <v>51.72029153881066</v>
       </c>
       <c r="C11" t="n">
-        <v>33.42580645161291</v>
+        <v>45.78203477431943</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.52666666666666</v>
+        <v>41.14677643943202</v>
       </c>
       <c r="C12" t="n">
-        <v>9.449999999999999</v>
+        <v>34.88425406742912</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.08064516129032</v>
+        <v>43.43278246093355</v>
       </c>
       <c r="C13" t="n">
-        <v>23.4258064516129</v>
+        <v>39.46553047598147</v>
       </c>
     </row>
   </sheetData>
